--- a/biology/Médecine/Artère_hépatique_propre/Artère_hépatique_propre.xlsx
+++ b/biology/Médecine/Artère_hépatique_propre/Artère_hépatique_propre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_h%C3%A9patique_propre</t>
+          <t>Artère_hépatique_propre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère hépatique propre est une artère systémique. C'est l'une des deux branches de division de l'artère hépatique commune, avec l'artère gastroduodénale.
 Elle approvisionne en sang oxygéné le foie, les voies biliaires ainsi qu'une partie de l'estomac.
